--- a/Division of Work.xlsx
+++ b/Division of Work.xlsx
@@ -554,7 +554,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -568,13 +568,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -861,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,304 +881,304 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1191,7 +1197,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>